--- a/data/raw/MDI data roundup for 2020 accessions.xlsx
+++ b/data/raw/MDI data roundup for 2020 accessions.xlsx
@@ -8,31 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicksmith/Documents/Git/mdi_pitchpine/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E172E9F-A3A1-1649-A68F-5C08F362C0B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4892AA8F-EBE8-B74B-B440-58910D2D2E43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="1240" windowWidth="23080" windowHeight="18080" xr2:uid="{F26D10A2-0CEF-42C7-BF55-8E43DE135277}"/>
+    <workbookView xWindow="14280" yWindow="1240" windowWidth="23080" windowHeight="18080" xr2:uid="{F26D10A2-0CEF-42C7-BF55-8E43DE135277}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>C</t>
   </si>
@@ -107,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +128,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,6 +174,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,20 +493,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D0935-BE33-42CA-B21B-022C68C31A57}">
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="K21" sqref="K21:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="11" width="9.1640625" style="1"/>
-    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1640625" style="1"/>
+    <col min="3" max="10" width="9.1640625" style="1"/>
+    <col min="11" max="12" width="8.83203125" style="1"/>
+    <col min="13" max="13" width="9.1640625" style="1"/>
+    <col min="14" max="14" width="10.5" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>22</v>
       </c>
@@ -520,10 +525,16 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -552,25 +563,31 @@
         <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>11</v>
       </c>
@@ -600,30 +617,38 @@
         <v>2.56</v>
       </c>
       <c r="K3" s="1">
+        <f>I3*100</f>
+        <v>280.39999999999998</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3*100</f>
+        <v>256</v>
+      </c>
+      <c r="M3" s="1">
         <v>18.541999999999998</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="1">
         <v>0.67200000000000004</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="1">
         <v>1.8280000000000001</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>2.8340000000000001</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="1">
         <v>2.8650000000000002</v>
       </c>
-      <c r="P3" s="1">
+      <c r="R3" s="1">
         <v>3.6880000000000002</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="S3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>12</v>
       </c>
@@ -653,30 +678,38 @@
         <v>6.1559999999999997</v>
       </c>
       <c r="K4" s="1">
+        <f t="shared" ref="K4:K25" si="1">I4*100</f>
+        <v>435.79999999999995</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L25" si="2">J4*100</f>
+        <v>615.6</v>
+      </c>
+      <c r="M4" s="1">
         <v>48.006</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="1">
         <v>1.139</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
         <v>2.133</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>2.286</v>
       </c>
-      <c r="O4" s="1">
+      <c r="Q4" s="1">
         <v>2.6190000000000002</v>
       </c>
-      <c r="P4" s="1">
+      <c r="R4" s="1">
         <v>2.6819999999999999</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="S4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>13</v>
       </c>
@@ -706,26 +739,34 @@
         <v>3.84</v>
       </c>
       <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>478.5</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="M5" s="1">
         <v>30.733999999999998</v>
       </c>
-      <c r="L5" s="1">
+      <c r="N5" s="1">
         <v>1.83</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="1">
         <v>3.3519999999999999</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <v>3.9620000000000002</v>
       </c>
-      <c r="O5" s="1">
+      <c r="Q5" s="1">
         <v>4.2670000000000003</v>
       </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>14</v>
       </c>
@@ -755,27 +796,35 @@
         <v>3.444</v>
       </c>
       <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>524.20000000000005</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>344.4</v>
+      </c>
+      <c r="M6" s="1">
         <v>19.05</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="1">
         <v>0.45700000000000002</v>
       </c>
-      <c r="M6" s="1">
+      <c r="O6" s="1">
         <v>1.6759999999999999</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <v>2.4380000000000002</v>
       </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="1">
         <v>3.1389999999999998</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="R6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>15</v>
       </c>
@@ -805,24 +854,32 @@
         <v>3.5049999999999999</v>
       </c>
       <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>591.30000000000007</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>350.5</v>
+      </c>
+      <c r="M7" s="1">
         <v>13.97</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>11</v>
       </c>
@@ -851,20 +908,26 @@
       <c r="J9" s="1">
         <v>7.9240000000000004</v>
       </c>
-      <c r="K9" s="1">
-        <v>44.577000000000005</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="K9" s="7">
+        <v>721.1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>792.4</v>
+      </c>
+      <c r="M9" s="7">
+        <v>44.576999999999998</v>
+      </c>
+      <c r="N9" s="1">
         <v>0.85299999999999998</v>
       </c>
-      <c r="M9" s="1">
+      <c r="O9" s="1">
         <v>0.91400000000000003</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>12</v>
       </c>
@@ -893,20 +956,26 @@
       <c r="J10" s="1">
         <v>7.452</v>
       </c>
-      <c r="K10" s="1">
-        <v>49.275999999999996</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="K10" s="7">
+        <v>746.7</v>
+      </c>
+      <c r="L10" s="7">
+        <v>745.2</v>
+      </c>
+      <c r="M10" s="7">
+        <v>49.276000000000003</v>
+      </c>
+      <c r="N10" s="1">
         <v>0.87</v>
       </c>
-      <c r="M10" s="1">
+      <c r="O10" s="1">
         <v>0.91400000000000003</v>
       </c>
-      <c r="N10" s="1">
+      <c r="P10" s="1">
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>13</v>
       </c>
@@ -935,20 +1004,26 @@
       <c r="J11" s="1">
         <v>5.09</v>
       </c>
-      <c r="K11" s="1">
-        <v>33.782000000000004</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="K11" s="7">
+        <v>646.1</v>
+      </c>
+      <c r="L11" s="7">
+        <v>509</v>
+      </c>
+      <c r="M11" s="7">
+        <v>33.781999999999996</v>
+      </c>
+      <c r="N11" s="1">
         <v>0.67</v>
       </c>
-      <c r="M11" s="1">
+      <c r="O11" s="1">
         <v>0.91400000000000003</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="1">
         <v>1.2190000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>14</v>
       </c>
@@ -977,14 +1052,20 @@
       <c r="J12" s="1">
         <v>6.7969999999999997</v>
       </c>
-      <c r="K12" s="1">
-        <v>30.733999999999998</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="K12" s="7">
+        <v>438.3</v>
+      </c>
+      <c r="L12" s="7">
+        <v>679.7</v>
+      </c>
+      <c r="M12" s="7">
+        <v>30.734000000000002</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>15</v>
       </c>
@@ -1013,25 +1094,31 @@
       <c r="J13" s="1">
         <v>3.6880000000000002</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="7">
+        <v>685.8</v>
+      </c>
+      <c r="L13" s="7">
+        <v>368.8</v>
+      </c>
+      <c r="M13" s="7">
         <v>34.543999999999997</v>
       </c>
-      <c r="L13" s="1">
+      <c r="N13" s="1">
         <v>0.48699999999999999</v>
       </c>
-      <c r="M13" s="1">
+      <c r="O13" s="1">
         <v>0.60899999999999999</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="1">
         <v>0.86</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>11</v>
       </c>
@@ -1061,19 +1148,27 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>497.70000000000005</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="2"/>
+        <v>448.00000000000006</v>
+      </c>
+      <c r="M15" s="1">
         <v>20.32</v>
       </c>
-      <c r="L15" s="1">
+      <c r="N15" s="1">
         <v>1.0660000000000001</v>
       </c>
-      <c r="M15" s="1">
+      <c r="O15" s="1">
         <v>1.07</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="1">
         <v>1.2190000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>12</v>
       </c>
@@ -1103,19 +1198,27 @@
         <v>5.0739999999999998</v>
       </c>
       <c r="K16" s="1">
+        <f t="shared" si="1"/>
+        <v>559.29999999999995</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="2"/>
+        <v>507.4</v>
+      </c>
+      <c r="M16" s="1">
         <v>31.242000000000001</v>
       </c>
-      <c r="L16" s="1">
+      <c r="N16" s="1">
         <v>1.1579999999999999</v>
       </c>
-      <c r="M16" s="1">
+      <c r="O16" s="1">
         <v>1.3660000000000001</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="1">
         <v>1.524</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>13</v>
       </c>
@@ -1145,22 +1248,30 @@
         <v>4.6479999999999997</v>
       </c>
       <c r="K17" s="1">
+        <f t="shared" si="1"/>
+        <v>603.5</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="2"/>
+        <v>464.79999999999995</v>
+      </c>
+      <c r="M17" s="1">
         <v>37.083999999999996</v>
       </c>
-      <c r="L17" s="1">
+      <c r="N17" s="1">
         <v>1.4430000000000001</v>
       </c>
-      <c r="M17" s="1">
+      <c r="O17" s="1">
         <v>1.7</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="1">
         <v>4.0990000000000002</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>4.125</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>14</v>
       </c>
@@ -1190,13 +1301,21 @@
         <v>4.0529999999999999</v>
       </c>
       <c r="K18" s="1">
+        <f t="shared" si="1"/>
+        <v>499.8</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="2"/>
+        <v>405.3</v>
+      </c>
+      <c r="M18" s="1">
         <v>23.241</v>
       </c>
-      <c r="L18" s="1">
+      <c r="N18" s="1">
         <v>4.556</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>15</v>
       </c>
@@ -1226,24 +1345,32 @@
         <v>4.45</v>
       </c>
       <c r="K19" s="1">
+        <f t="shared" si="1"/>
+        <v>490.7</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="2"/>
+        <v>445</v>
+      </c>
+      <c r="M19" s="1">
         <v>26.035</v>
       </c>
-      <c r="L19" s="1">
+      <c r="N19" s="1">
         <v>2.9910000000000001</v>
       </c>
-      <c r="M19" s="1">
+      <c r="O19" s="1">
         <v>3.1259999999999999</v>
       </c>
-      <c r="N19" s="1">
+      <c r="P19" s="1">
         <v>4.53</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>11</v>
       </c>
@@ -1273,19 +1400,27 @@
         <v>2.0419999999999998</v>
       </c>
       <c r="K21" s="1">
+        <f t="shared" si="1"/>
+        <v>230.7</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="2"/>
+        <v>204.2</v>
+      </c>
+      <c r="M21" s="1">
         <v>10.795</v>
       </c>
-      <c r="L21" s="1">
+      <c r="N21" s="1">
         <v>1.097</v>
       </c>
-      <c r="M21" s="1">
+      <c r="O21" s="1">
         <v>1.2889999999999999</v>
       </c>
-      <c r="N21" s="1">
+      <c r="P21" s="1">
         <v>1.45</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>12</v>
       </c>
@@ -1315,19 +1450,27 @@
         <v>2.3769999999999998</v>
       </c>
       <c r="K22" s="1">
+        <f t="shared" si="1"/>
+        <v>197.8</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="2"/>
+        <v>237.7</v>
+      </c>
+      <c r="M22" s="1">
         <v>12.953999999999999</v>
       </c>
-      <c r="L22" s="1">
+      <c r="N22" s="1">
         <v>1.1970000000000001</v>
       </c>
-      <c r="M22" s="1">
+      <c r="O22" s="1">
         <v>1.4019999999999999</v>
       </c>
-      <c r="N22" s="1">
+      <c r="P22" s="1">
         <v>4.0529999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>13</v>
       </c>
@@ -1357,16 +1500,24 @@
         <v>2.0110000000000001</v>
       </c>
       <c r="K23" s="1">
+        <f t="shared" si="1"/>
+        <v>194.1</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="2"/>
+        <v>201.10000000000002</v>
+      </c>
+      <c r="M23" s="1">
         <v>11.1252</v>
       </c>
-      <c r="L23" s="1">
+      <c r="N23" s="1">
         <v>4.2359999999999998</v>
       </c>
-      <c r="M23" s="1">
+      <c r="O23" s="1">
         <v>4.4169999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>14</v>
       </c>
@@ -1396,13 +1547,21 @@
         <v>2.407</v>
       </c>
       <c r="K24" s="1">
+        <f t="shared" si="1"/>
+        <v>253.2</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="2"/>
+        <v>240.7</v>
+      </c>
+      <c r="M24" s="1">
         <v>18.414999999999999</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>15</v>
       </c>
@@ -1432,13 +1591,21 @@
         <v>1.524</v>
       </c>
       <c r="K25" s="1">
+        <f t="shared" si="1"/>
+        <v>220.29999999999998</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="2"/>
+        <v>152.4</v>
+      </c>
+      <c r="M25" s="1">
         <v>12.065</v>
       </c>
-      <c r="L25" s="1">
+      <c r="N25" s="1">
         <v>4.5720000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D28" s="3"/>
     </row>
   </sheetData>
